--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.768219794658</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H2">
-        <v>11.768219794658</v>
+        <v>49.740715</v>
       </c>
       <c r="I2">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J2">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.0097332205895</v>
+        <v>0.3213843333333333</v>
       </c>
       <c r="N2">
-        <v>1.0097332205895</v>
+        <v>0.964153</v>
       </c>
       <c r="O2">
-        <v>0.4702404743953247</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="P2">
-        <v>0.4702404743953247</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="Q2">
-        <v>11.88276247386513</v>
+        <v>5.328628843266111</v>
       </c>
       <c r="R2">
-        <v>11.88276247386513</v>
+        <v>47.957659589395</v>
       </c>
       <c r="S2">
-        <v>0.2622727714181687</v>
+        <v>0.06776940459420808</v>
       </c>
       <c r="T2">
-        <v>0.2622727714181687</v>
+        <v>0.06776940459420808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.768219794658</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H3">
-        <v>11.768219794658</v>
+        <v>49.740715</v>
       </c>
       <c r="I3">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J3">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.13753668825427</v>
+        <v>1.174648</v>
       </c>
       <c r="N3">
-        <v>1.13753668825427</v>
+        <v>3.523944</v>
       </c>
       <c r="O3">
-        <v>0.5297595256046753</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="P3">
-        <v>0.5297595256046753</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="Q3">
-        <v>13.38678177186361</v>
+        <v>19.47594379777334</v>
       </c>
       <c r="R3">
-        <v>13.38678177186361</v>
+        <v>175.28349417996</v>
       </c>
       <c r="S3">
-        <v>0.2954690345278665</v>
+        <v>0.2476946985627095</v>
       </c>
       <c r="T3">
-        <v>0.2954690345278665</v>
+        <v>0.2476946985627095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.538291985823919</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H4">
-        <v>8.538291985823919</v>
+        <v>49.740715</v>
       </c>
       <c r="I4">
-        <v>0.4046629375523476</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J4">
-        <v>0.4046629375523476</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.0097332205895</v>
+        <v>1.517287666666667</v>
       </c>
       <c r="N4">
-        <v>1.0097332205895</v>
+        <v>4.551863</v>
       </c>
       <c r="O4">
-        <v>0.4702404743953247</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="P4">
-        <v>0.4702404743953247</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="Q4">
-        <v>8.621397065179504</v>
+        <v>25.15699113356056</v>
       </c>
       <c r="R4">
-        <v>8.621397065179504</v>
+        <v>226.412920202045</v>
       </c>
       <c r="S4">
-        <v>0.1902888917248216</v>
+        <v>0.3199461551272524</v>
       </c>
       <c r="T4">
-        <v>0.1902888917248216</v>
+        <v>0.3199461551272524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.538291985823919</v>
+        <v>8.574149</v>
       </c>
       <c r="H5">
-        <v>8.538291985823919</v>
+        <v>25.722447</v>
       </c>
       <c r="I5">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J5">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.13753668825427</v>
+        <v>0.3213843333333333</v>
       </c>
       <c r="N5">
-        <v>1.13753668825427</v>
+        <v>0.964153</v>
       </c>
       <c r="O5">
-        <v>0.5297595256046753</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="P5">
-        <v>0.5297595256046753</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="Q5">
-        <v>9.712620388902115</v>
+        <v>2.755597160265667</v>
       </c>
       <c r="R5">
-        <v>9.712620388902115</v>
+        <v>24.800374442391</v>
       </c>
       <c r="S5">
-        <v>0.214374045827526</v>
+        <v>0.03504563450477288</v>
       </c>
       <c r="T5">
-        <v>0.214374045827526</v>
+        <v>0.03504563450477288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.793250993615465</v>
+        <v>8.574149</v>
       </c>
       <c r="H6">
-        <v>0.793250993615465</v>
+        <v>25.722447</v>
       </c>
       <c r="I6">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J6">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.0097332205895</v>
+        <v>1.174648</v>
       </c>
       <c r="N6">
-        <v>1.0097332205895</v>
+        <v>3.523944</v>
       </c>
       <c r="O6">
-        <v>0.4702404743953247</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="P6">
-        <v>0.4702404743953247</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="Q6">
-        <v>0.8009718805191643</v>
+        <v>10.071606974552</v>
       </c>
       <c r="R6">
-        <v>0.8009718805191643</v>
+        <v>90.644462770968</v>
       </c>
       <c r="S6">
-        <v>0.01767881125233438</v>
+        <v>0.1280905140981643</v>
       </c>
       <c r="T6">
-        <v>0.01767881125233438</v>
+        <v>0.1280905140981643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.793250993615465</v>
+        <v>8.574149</v>
       </c>
       <c r="H7">
-        <v>0.793250993615465</v>
+        <v>25.722447</v>
       </c>
       <c r="I7">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J7">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.13753668825427</v>
+        <v>1.517287666666667</v>
       </c>
       <c r="N7">
-        <v>1.13753668825427</v>
+        <v>4.551863</v>
       </c>
       <c r="O7">
-        <v>0.5297595256046753</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="P7">
-        <v>0.5297595256046753</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="Q7">
-        <v>0.9023521082317451</v>
+        <v>13.00945052986233</v>
       </c>
       <c r="R7">
-        <v>0.9023521082317451</v>
+        <v>117.085054768761</v>
       </c>
       <c r="S7">
-        <v>0.0199164452492828</v>
+        <v>0.1654539549364043</v>
       </c>
       <c r="T7">
-        <v>0.0199164452492828</v>
+        <v>0.1654539549364043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9393656666666668</v>
+      </c>
+      <c r="H8">
+        <v>2.818097</v>
+      </c>
+      <c r="I8">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="J8">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3213843333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.964153</v>
+      </c>
+      <c r="O8">
+        <v>0.1066545648432073</v>
+      </c>
+      <c r="P8">
+        <v>0.1066545648432073</v>
+      </c>
+      <c r="Q8">
+        <v>0.3018974085378889</v>
+      </c>
+      <c r="R8">
+        <v>2.717076676841</v>
+      </c>
+      <c r="S8">
+        <v>0.003839525744226314</v>
+      </c>
+      <c r="T8">
+        <v>0.003839525744226315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9393656666666668</v>
+      </c>
+      <c r="H9">
+        <v>2.818097</v>
+      </c>
+      <c r="I9">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="J9">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.174648</v>
+      </c>
+      <c r="N9">
+        <v>3.523944</v>
+      </c>
+      <c r="O9">
+        <v>0.3898185390200842</v>
+      </c>
+      <c r="P9">
+        <v>0.3898185390200842</v>
+      </c>
+      <c r="Q9">
+        <v>1.103424001618667</v>
+      </c>
+      <c r="R9">
+        <v>9.930816014568002</v>
+      </c>
+      <c r="S9">
+        <v>0.01403332635921047</v>
+      </c>
+      <c r="T9">
+        <v>0.01403332635921048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9393656666666668</v>
+      </c>
+      <c r="H10">
+        <v>2.818097</v>
+      </c>
+      <c r="I10">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="J10">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.517287666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.551863</v>
+      </c>
+      <c r="O10">
+        <v>0.5035268961367085</v>
+      </c>
+      <c r="P10">
+        <v>0.5035268961367085</v>
+      </c>
+      <c r="Q10">
+        <v>1.425287940523444</v>
+      </c>
+      <c r="R10">
+        <v>12.827591464711</v>
+      </c>
+      <c r="S10">
+        <v>0.01812678607305192</v>
+      </c>
+      <c r="T10">
+        <v>0.01812678607305192</v>
       </c>
     </row>
   </sheetData>
